--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="6090" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Saturday" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sunday" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Monday" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Tuesday" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Wednesday" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Thursday" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Friday" sheetId="7" r:id="rId10"/>
+    <sheet name="Saturday" sheetId="1" r:id="rId1"/>
+    <sheet name="Sunday" sheetId="2" r:id="rId2"/>
+    <sheet name="Monday" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuesday" sheetId="4" r:id="rId4"/>
+    <sheet name="Wednesday" sheetId="5" r:id="rId5"/>
+    <sheet name="Thursday" sheetId="6" r:id="rId6"/>
+    <sheet name="Friday" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="47">
   <si>
     <t>Longest Option</t>
   </si>
@@ -102,25 +105,93 @@
   </si>
   <si>
     <t>Geography</t>
+  </si>
+  <si>
+    <t>Dhaka University
+Public university in Dhaka, Bangladesh</t>
+  </si>
+  <si>
+    <t>dhaka post</t>
+  </si>
+  <si>
+    <t>saturday sunday monday
+7 Days of the Week — Song by The Learning Station</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>Baby Hamburger
+Song by Klekoyl</t>
+  </si>
+  <si>
+    <t>Baby
+Song</t>
+  </si>
+  <si>
+    <t>School 2017
+Television series</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>2023 Cricket World Cup
+Tournament</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>pathao courier tracking</t>
+  </si>
+  <si>
+    <t>Inter Miami CF
+Soccer club</t>
+  </si>
+  <si>
+    <t>inter miami match</t>
+  </si>
+  <si>
+    <t>Just Looking Like A Wow
+Song by Bela Bose</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>Hello Hello!
+Song by Super Simple Learning</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>xshell download for windows 10</t>
+  </si>
+  <si>
+    <t>xshell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -131,11 +202,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -149,59 +226,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -391,20 +446,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -420,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -428,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -436,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -444,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -452,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -460,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -468,7 +526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -476,7 +534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -484,7 +542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -493,21 +551,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -523,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -531,7 +590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -539,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -547,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -555,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -563,7 +622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -571,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -579,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -587,7 +646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -596,21 +655,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -634,7 +694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -642,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -650,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -658,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -674,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -682,7 +742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -690,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -699,29 +759,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -729,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -745,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -753,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -777,7 +840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -785,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -793,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -802,21 +865,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,79 +888,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -905,21 +1023,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -951,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -959,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -967,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -975,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -983,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1008,27 +1127,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="10.13"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="8.25"/>
-    <col customWidth="1" min="6" max="6" width="5.0"/>
+    <col min="2" max="3" customWidth="true" width="10.140625"/>
+    <col min="4" max="4" customWidth="true" width="8.140625"/>
+    <col min="5" max="5" customWidth="true" width="8.28515625"/>
+    <col min="6" max="6" customWidth="true" width="5.0"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1117,6 +1237,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="6090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14340" windowHeight="2985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="Friday" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
   <si>
     <t>Longest Option</t>
   </si>
@@ -167,17 +168,60 @@
     <t>hello world</t>
   </si>
   <si>
-    <t>xshell download for windows 10</t>
-  </si>
-  <si>
-    <t>xshell</t>
+    <t>cricket live score today</t>
+  </si>
+  <si>
+    <t>money heist season 6 release date</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>inter milan vs atletico madrid</t>
+  </si>
+  <si>
+    <t>inter miami vs</t>
+  </si>
+  <si>
+    <t>goods meaning in bengali
+পণ্য (Bangla)</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>dhaka education board
+Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
+  </si>
+  <si>
+    <t>sunday suspense sherlock holmes</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>baby pic</t>
+  </si>
+  <si>
+    <t>cricket icc
+International Cricket Council — Cricket administrative body</t>
+  </si>
+  <si>
+    <t>money heist berlin series</t>
+  </si>
+  <si>
+    <t>International Cricket Council
+Cricket administrative body</t>
+  </si>
+  <si>
+    <t>Looking
+American comedy-drama series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -562,7 +606,7 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -581,6 +625,12 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -589,6 +639,12 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -597,6 +653,12 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -605,6 +667,12 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -613,6 +681,12 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -621,6 +695,12 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -629,6 +709,12 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -637,6 +723,12 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -644,6 +736,12 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -666,7 +764,7 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -770,7 +868,7 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +974,7 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -895,10 +993,10 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -909,10 +1007,10 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -923,10 +1021,10 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -937,10 +1035,10 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -951,10 +1049,10 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -965,10 +1063,10 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -979,10 +1077,10 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -993,10 +1091,10 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1007,10 +1105,10 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1034,7 +1132,7 @@
   </sheetPr>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1053,6 +1151,12 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -1061,6 +1165,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1069,6 +1179,12 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -1077,6 +1193,12 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -1085,6 +1207,12 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -1093,6 +1221,12 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -1101,6 +1235,12 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1109,6 +1249,12 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -1116,6 +1262,12 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -1142,10 +1294,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" customWidth="true" width="10.140625"/>
-    <col min="4" max="4" customWidth="true" width="8.140625"/>
-    <col min="5" max="5" customWidth="true" width="8.28515625"/>
-    <col min="6" max="6" customWidth="true" width="5.0"/>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
